--- a/Assignment1/Data/Config.xlsx
+++ b/Assignment1/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santana\Documents\UiPath\Assignment1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E630F5-5FB7-4B6D-8A3F-E3488661B76B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B149D-7D9F-4858-8AE3-0FA166E6ED73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Sha1_URL</t>
+  </si>
+  <si>
+    <t>ACME_Credential</t>
+  </si>
+  <si>
+    <t>ACME_login</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -592,7 +598,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
